--- a/PicoGreen_Plots/20231206_Pico_NoSerum.xlsx
+++ b/PicoGreen_Plots/20231206_Pico_NoSerum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C054B-B404-A04D-B151-1CB1670A626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B5CD5-740B-DA4A-AFA7-E7445E9B4B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5780" yWindow="1800" windowWidth="16240" windowHeight="12080" activeTab="2" xr2:uid="{ED33CA00-0216-504A-97C3-5F9FB09FECF5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>Software Version</t>
   </si>
@@ -239,6 +239,21 @@
   </si>
   <si>
     <t>DIP G3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1712,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1726,7 +1741,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>6.6622805498805366</v>
@@ -1737,7 +1752,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>0.96263721042972406</v>
@@ -1748,7 +1763,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>5.4884171889608364</v>
@@ -1759,7 +1774,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>4.9066795941687724</v>
@@ -1770,7 +1785,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>3.6220090723362999</v>
